--- a/v1/nfc-pn532_top_bom-jlcpcb.xlsx
+++ b/v1/nfc-pn532_top_bom-jlcpcb.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\git\rpi4-terminal\boards\nfc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\git\PN532-Breakout-Board\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47944381-D554-4DC3-952E-D8FC05EEA890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB255C-32C4-4914-98FB-204149CB53FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="3360" windowWidth="24675" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="3165" windowWidth="28065" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nfc-pn532-v2_top_bom (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'nfc-pn532-v2_top_bom (2)'!$A$1:$D$26</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'nfc-pn532-v2_top_bom (2)'!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>Column1</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>C11 C14 C16 C17 C18 C20 C23 C24</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>C17414</t>
   </si>
 </sst>
 </file>
@@ -836,8 +845,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="nfc_pn532_v2_top_bom" displayName="nfc_pn532_v2_top_bom" ref="A1:D26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="nfc_pn532_v2_top_bom" displayName="nfc_pn532_v2_top_bom" ref="A1:D27" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
@@ -1145,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,221 +1240,221 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -1453,13 +1462,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1467,10 +1476,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>51</v>
@@ -1481,10 +1490,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>51</v>
@@ -1495,10 +1504,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>51</v>
@@ -1509,15 +1518,29 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
